--- a/data/trans_dic/P59A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1462377021980452</v>
+        <v>0.1544701758590199</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1648410462011789</v>
+        <v>0.1675511062673689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09263238852883046</v>
+        <v>0.09095750326024798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.163287965011148</v>
+        <v>0.1564458294619067</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1067175703766938</v>
+        <v>0.1042534889861783</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1677632411020968</v>
+        <v>0.1620154746327956</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1221105271001808</v>
+        <v>0.1187559592064217</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1508346553538557</v>
+        <v>0.1533038879926095</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1498122585847653</v>
+        <v>0.1501228531814882</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.186508713967615</v>
+        <v>0.1839899671586523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1203492610316864</v>
+        <v>0.118688481112138</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.174700590557099</v>
+        <v>0.1737771802932212</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2929336578077824</v>
+        <v>0.29275578295431</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3125458642351511</v>
+        <v>0.3172532062444735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1981852057181767</v>
+        <v>0.2027586635936971</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2879839467880582</v>
+        <v>0.2836315396763627</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2415918445951725</v>
+        <v>0.2346321676220289</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.339493139096713</v>
+        <v>0.3437217983374674</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2513934780577897</v>
+        <v>0.2483083579801209</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.248311967950125</v>
+        <v>0.2547939508348142</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2464241319457331</v>
+        <v>0.2450221824411922</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3006937565559371</v>
+        <v>0.3044687250940237</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2037560137673765</v>
+        <v>0.2004251228960144</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2535846844592937</v>
+        <v>0.2514467162093555</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2555800802131214</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1832975394788852</v>
+        <v>0.1832975394788853</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09841968964275513</v>
+        <v>0.1013305819925388</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09626522996473662</v>
+        <v>0.09581027002735552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2638921975142426</v>
+        <v>0.269269691870887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1081988858433982</v>
+        <v>0.1057129297681593</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1732408349815934</v>
+        <v>0.1733760933056509</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.147706876196303</v>
+        <v>0.1510125230597942</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.126183164540588</v>
+        <v>0.1218486534584404</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1558761443908214</v>
+        <v>0.1567035152777512</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1559598224373069</v>
+        <v>0.1584256485236344</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1361752691117997</v>
+        <v>0.132406435624181</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2053872174687357</v>
+        <v>0.2031121708706333</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1461352140422969</v>
+        <v>0.1457714383194365</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2326231491530804</v>
+        <v>0.2304520202904379</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2447142450610589</v>
+        <v>0.2417911245568283</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4372436680520529</v>
+        <v>0.4408008671212646</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2283290682827698</v>
+        <v>0.2268104821540639</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3022179490931152</v>
+        <v>0.3010494851214447</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3108959083196032</v>
+        <v>0.3172017060570057</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2501333796585346</v>
+        <v>0.2497371791287382</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2653122992693062</v>
+        <v>0.2691986360314567</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2554559073180786</v>
+        <v>0.2513826453149405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2424216327924578</v>
+        <v>0.2440992325967003</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.307822806889907</v>
+        <v>0.3115263000288874</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2299310234994111</v>
+        <v>0.2302606884181208</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1504745027020215</v>
+        <v>0.1452413834833985</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1689317783676985</v>
+        <v>0.1741823165974187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1380911316909026</v>
+        <v>0.128882478377807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1641391594077291</v>
+        <v>0.1620898789927777</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02094868545258549</v>
+        <v>0.02070904375545931</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1180611975313489</v>
+        <v>0.1126530238206565</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09907268166255881</v>
+        <v>0.08774892223207069</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06650056029157242</v>
+        <v>0.06811368160810451</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1265607680072548</v>
+        <v>0.1281191115717808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1654351461433288</v>
+        <v>0.1628862972324953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1387768357893193</v>
+        <v>0.1321281147427815</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1496808726497756</v>
+        <v>0.1477849112812391</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2868951878532129</v>
+        <v>0.2803476431223681</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2905321700713301</v>
+        <v>0.3021656305133464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2725123463343742</v>
+        <v>0.2637925833201106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3088786914544378</v>
+        <v>0.3103836690806246</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1775609054153875</v>
+        <v>0.1755646645883375</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2731224879119984</v>
+        <v>0.2780686903401638</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2981890290432195</v>
+        <v>0.2817432185145087</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.197706593515104</v>
+        <v>0.2083475875779201</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2441719661702517</v>
+        <v>0.2467870112676738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2691239752977906</v>
+        <v>0.2645910969216446</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.251417344515948</v>
+        <v>0.2440138792213849</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2577773868394218</v>
+        <v>0.2613106783028179</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1283224003564749</v>
+        <v>0.1264958582060463</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1494182042530463</v>
+        <v>0.1453731492064896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1891589731437615</v>
+        <v>0.1919632454783735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1584072418154479</v>
+        <v>0.1603632898960075</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0822074109058909</v>
+        <v>0.08229067658016109</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1759864388952898</v>
+        <v>0.1755427654943148</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1609009734756611</v>
+        <v>0.1649278023719933</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1469272536750639</v>
+        <v>0.1459087373463116</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1177257361634613</v>
+        <v>0.1199391057524941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.172217423824962</v>
+        <v>0.1730372773160893</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1872957564223193</v>
+        <v>0.1883403146513652</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1653945965660286</v>
+        <v>0.1662504209481993</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2004273535297677</v>
+        <v>0.2018602777899969</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2312071156389463</v>
+        <v>0.2252418537235508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2772298920405283</v>
+        <v>0.2764356796514034</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2445036895750895</v>
+        <v>0.2487323679514121</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1574017138184184</v>
+        <v>0.1592328538026556</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2699109850224863</v>
+        <v>0.2751698811123557</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2391569530027311</v>
+        <v>0.2436129167480952</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2250192181344233</v>
+        <v>0.2237669870380924</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1691669005369058</v>
+        <v>0.1694082390632193</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2305837312049793</v>
+        <v>0.2326858148461051</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2426253891722678</v>
+        <v>0.2477680753086339</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2215573800529357</v>
+        <v>0.2232943368148679</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08779177767304941</v>
+        <v>0.09531840469203261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1085220759369637</v>
+        <v>0.105896947054513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1309985506886218</v>
+        <v>0.1342404658418563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09039057156628054</v>
+        <v>0.09239605554638278</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0926035888792361</v>
+        <v>0.08929408609947528</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09461516848273513</v>
+        <v>0.09806098759314415</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1192290601936035</v>
+        <v>0.1179653173875015</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09052917892479265</v>
+        <v>0.0893085545705839</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1025502411854454</v>
+        <v>0.1026057738882187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1138903188424745</v>
+        <v>0.1128214719579523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1392819566217975</v>
+        <v>0.1406213174212602</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0980100828032907</v>
+        <v>0.09666865901283174</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2145090072948137</v>
+        <v>0.2088294050657165</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.199941913946977</v>
+        <v>0.2003524775276351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2258716414558557</v>
+        <v>0.2295151394324342</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1964024171377647</v>
+        <v>0.1876086973679547</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1962652749916472</v>
+        <v>0.1964206659592359</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1865701113495243</v>
+        <v>0.186577167839269</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1984379986038304</v>
+        <v>0.2009396350687342</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1514170705603243</v>
+        <v>0.1505595662625127</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1755766241505401</v>
+        <v>0.1825193087675877</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1792315242097248</v>
+        <v>0.1737837395902104</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2002805202429865</v>
+        <v>0.2025720705626331</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1565613805346366</v>
+        <v>0.1545186054069201</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.0253968934223535</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02774754940820896</v>
+        <v>0.02774754940820897</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.02980459384883805</v>
@@ -1365,7 +1365,7 @@
         <v>0.05466914810733045</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05328881273530249</v>
+        <v>0.05328881273530248</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0205006361528129</v>
@@ -1377,7 +1377,7 @@
         <v>0.04393331095828702</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.04485477783100578</v>
+        <v>0.04485477783100577</v>
       </c>
     </row>
     <row r="20">
@@ -1392,34 +1392,34 @@
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.01025838349662152</v>
+        <v>0.01048696227414783</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.00501235155708981</v>
+        <v>0.005015949787639382</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01783723407406891</v>
+        <v>0.01624117550728943</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02448176620049015</v>
+        <v>0.02583885114635155</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03686399893294746</v>
+        <v>0.03565250451965401</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0353869509308036</v>
+        <v>0.0319699994132925</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01241783095433343</v>
+        <v>0.01240275757143186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01729038300293782</v>
+        <v>0.01665326232098398</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03034434523037521</v>
+        <v>0.02987281180816844</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02900469250459337</v>
+        <v>0.02855837092384475</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01501002591602072</v>
+        <v>0.01375842716719032</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.04896405776186955</v>
+        <v>0.05234362716864296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1001491956565656</v>
+        <v>0.08903909151769253</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04869229832620765</v>
+        <v>0.0484705509021707</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06115807977007486</v>
+        <v>0.06241229217092898</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07966993735284229</v>
+        <v>0.07674152206805761</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08434217889197632</v>
+        <v>0.08153527007680784</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03154586770266584</v>
+        <v>0.03296961434317473</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04267035657246696</v>
+        <v>0.04260762229363473</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05997822251065922</v>
+        <v>0.0588792640848619</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07052098901605693</v>
+        <v>0.06867211982937686</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1158151912322181</v>
+        <v>0.1168871529204335</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1333334357403401</v>
+        <v>0.1341427724819316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1566492653692053</v>
+        <v>0.1564592967251089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1453535935945959</v>
+        <v>0.1441259961257899</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08688550474933419</v>
+        <v>0.08578842350073709</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1240585347350323</v>
+        <v>0.125232588741948</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1256680243909259</v>
+        <v>0.1238161984416334</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1216379390072088</v>
+        <v>0.1229569446037445</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1068276055969876</v>
+        <v>0.1071863600773777</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1338387888864053</v>
+        <v>0.1352660436223888</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1440288590889535</v>
+        <v>0.1439633004643398</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1384334825918548</v>
+        <v>0.1376067346885191</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1567178052146498</v>
+        <v>0.1564863589306651</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1760875789450643</v>
+        <v>0.1767857879997268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1956982608119301</v>
+        <v>0.1977674877550141</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.189715243428139</v>
+        <v>0.1896650595612954</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1194570122963936</v>
+        <v>0.1198831416961928</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.162578978049469</v>
+        <v>0.1643922323634051</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1607015119003642</v>
+        <v>0.1596076729797926</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1551291863316738</v>
+        <v>0.1550597890960019</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1331257296235009</v>
+        <v>0.1312005528582524</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1641449244132528</v>
+        <v>0.1639245122983003</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1717494072726024</v>
+        <v>0.1714194966449513</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1651935858214042</v>
+        <v>0.1654585701546012</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21250</v>
+        <v>22446</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25177</v>
+        <v>25591</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17320</v>
+        <v>17007</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35025</v>
+        <v>33558</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13244</v>
+        <v>12938</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19379</v>
+        <v>18715</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18889</v>
+        <v>18370</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35141</v>
+        <v>35716</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40361</v>
+        <v>40445</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>50030</v>
+        <v>49355</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>41119</v>
+        <v>40551</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>78174</v>
+        <v>77761</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42566</v>
+        <v>42541</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47737</v>
+        <v>48456</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37055</v>
+        <v>37911</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>61773</v>
+        <v>60839</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29982</v>
+        <v>29118</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39216</v>
+        <v>39704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>38887</v>
+        <v>38410</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57850</v>
+        <v>59361</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>66389</v>
+        <v>66012</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>80660</v>
+        <v>81673</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>69615</v>
+        <v>68477</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>113473</v>
+        <v>112516</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12079</v>
+        <v>12437</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12922</v>
+        <v>12861</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33965</v>
+        <v>34657</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22206</v>
+        <v>21695</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>28475</v>
+        <v>28497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17379</v>
+        <v>17768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19310</v>
+        <v>18647</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30461</v>
+        <v>30623</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>44776</v>
+        <v>45484</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>34301</v>
+        <v>33352</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>57866</v>
+        <v>57225</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>58549</v>
+        <v>58403</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28551</v>
+        <v>28284</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32848</v>
+        <v>32456</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56276</v>
+        <v>56734</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46860</v>
+        <v>46548</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>49675</v>
+        <v>49483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36580</v>
+        <v>37322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38279</v>
+        <v>38218</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>51847</v>
+        <v>52606</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73342</v>
+        <v>72172</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>61064</v>
+        <v>61486</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>86726</v>
+        <v>87769</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>92122</v>
+        <v>92254</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23951</v>
+        <v>23118</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32792</v>
+        <v>33812</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21491</v>
+        <v>20058</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32684</v>
+        <v>32276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11629</v>
+        <v>11096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6763</v>
+        <v>5990</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5750</v>
+        <v>5889</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25878</v>
+        <v>26197</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>48408</v>
+        <v>47662</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31071</v>
+        <v>29582</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>42746</v>
+        <v>42205</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45665</v>
+        <v>44623</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56397</v>
+        <v>58655</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42411</v>
+        <v>41054</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61505</v>
+        <v>61805</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8044</v>
+        <v>7954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>26901</v>
+        <v>27389</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20355</v>
+        <v>19232</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17094</v>
+        <v>18014</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49927</v>
+        <v>50462</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>78749</v>
+        <v>77423</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>56290</v>
+        <v>54632</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>73617</v>
+        <v>74626</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>52591</v>
+        <v>51843</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>62323</v>
+        <v>60636</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>78085</v>
+        <v>79243</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>84680</v>
+        <v>85726</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25409</v>
+        <v>25435</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>56803</v>
+        <v>56660</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>66944</v>
+        <v>68619</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>62360</v>
+        <v>61927</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>84636</v>
+        <v>86227</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>127420</v>
+        <v>128026</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>155241</v>
+        <v>156107</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>158613</v>
+        <v>159433</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>82142</v>
+        <v>82730</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>96437</v>
+        <v>93949</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>114441</v>
+        <v>114113</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>130705</v>
+        <v>132965</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48651</v>
+        <v>49217</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>87120</v>
+        <v>88817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>99502</v>
+        <v>101356</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>95504</v>
+        <v>94972</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>121618</v>
+        <v>121791</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>170603</v>
+        <v>172159</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>201102</v>
+        <v>205364</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>212473</v>
+        <v>214138</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14179</v>
+        <v>15395</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24236</v>
+        <v>23650</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38605</v>
+        <v>39560</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27400</v>
+        <v>28008</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>18239</v>
+        <v>17587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>26724</v>
+        <v>27698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>37746</v>
+        <v>37346</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>35809</v>
+        <v>35326</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>36761</v>
+        <v>36781</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>57604</v>
+        <v>57063</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>85140</v>
+        <v>85959</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>68478</v>
+        <v>67541</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34645</v>
+        <v>33728</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>44653</v>
+        <v>44745</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66563</v>
+        <v>67637</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>59535</v>
+        <v>56869</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>38656</v>
+        <v>38686</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>52697</v>
+        <v>52699</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>62822</v>
+        <v>63614</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>59893</v>
+        <v>59554</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>62938</v>
+        <v>65427</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>90652</v>
+        <v>87897</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>122427</v>
+        <v>123828</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>109386</v>
+        <v>107959</v>
       </c>
     </row>
     <row r="24">
@@ -2774,34 +2774,34 @@
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>2847</v>
+        <v>2910</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9657</v>
+        <v>8793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11896</v>
+        <v>12556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>17662</v>
+        <v>17081</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>16722</v>
+        <v>15107</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>10289</v>
+        <v>10276</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>12845</v>
+        <v>12371</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>22958</v>
+        <v>22602</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>20463</v>
+        <v>20148</v>
       </c>
     </row>
     <row r="27">
@@ -2812,38 +2812,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4311</v>
+        <v>3951</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>13587</v>
+        <v>14525</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23331</v>
+        <v>20743</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>26361</v>
+        <v>26241</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>29718</v>
+        <v>30327</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>38170</v>
+        <v>36767</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>39855</v>
+        <v>38528</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>26137</v>
+        <v>27317</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>31699</v>
+        <v>31652</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>45379</v>
+        <v>44548</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>49753</v>
+        <v>48448</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>148908</v>
+        <v>150286</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>183796</v>
+        <v>184912</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>228127</v>
+        <v>227851</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>245578</v>
+        <v>243504</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>120005</v>
+        <v>118490</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>176512</v>
+        <v>178183</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>199526</v>
+        <v>196586</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>219844</v>
+        <v>222228</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>284901</v>
+        <v>285858</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>374920</v>
+        <v>378919</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>438426</v>
+        <v>438226</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>484086</v>
+        <v>481195</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>201498</v>
+        <v>201200</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>242732</v>
+        <v>243694</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>284994</v>
+        <v>288007</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>320528</v>
+        <v>320443</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>164993</v>
+        <v>165581</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>231319</v>
+        <v>233899</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>255149</v>
+        <v>253413</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>280375</v>
+        <v>280250</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>355037</v>
+        <v>349902</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>459817</v>
+        <v>459199</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>522808</v>
+        <v>521804</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>577663</v>
+        <v>578590</v>
       </c>
     </row>
     <row r="32">
